--- a/BitcoinCash.xlsx
+++ b/BitcoinCash.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H425"/>
+  <dimension ref="A1:H446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10162,19 +10162,19 @@
         <v>570.320007</v>
       </c>
       <c r="C376" t="n">
-        <v>571.1400150000001</v>
+        <v>582.929993</v>
       </c>
       <c r="D376" t="n">
         <v>538.049988</v>
       </c>
       <c r="E376" t="n">
-        <v>544.880005</v>
+        <v>563.179993</v>
       </c>
       <c r="F376" t="n">
-        <v>544.880005</v>
+        <v>563.179993</v>
       </c>
       <c r="G376" t="n">
-        <v>12209252</v>
+        <v>28931301</v>
       </c>
       <c r="H376" t="s">
         <v>8</v>
@@ -10185,22 +10185,22 @@
         <v>43323</v>
       </c>
       <c r="B377" t="n">
-        <v>544.880005</v>
+        <v>563.200012</v>
       </c>
       <c r="C377" t="n">
-        <v>544.880005</v>
+        <v>587.830017</v>
       </c>
       <c r="D377" t="n">
-        <v>544.880005</v>
+        <v>555</v>
       </c>
       <c r="E377" t="n">
-        <v>544.880005</v>
+        <v>571.3599849999999</v>
       </c>
       <c r="F377" t="n">
-        <v>544.880005</v>
+        <v>571.3599849999999</v>
       </c>
       <c r="G377" t="n">
-        <v>0</v>
+        <v>19112794</v>
       </c>
       <c r="H377" t="s">
         <v>8</v>
@@ -11430,27 +11430,573 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" s="2" t="n">
-        <v>43372</v>
+        <v>43371</v>
       </c>
       <c r="B425" t="n">
         <v>539.289978</v>
       </c>
       <c r="C425" t="n">
-        <v>539.289978</v>
+        <v>560.450012</v>
       </c>
       <c r="D425" t="n">
         <v>510.4400019999999</v>
       </c>
       <c r="E425" t="n">
-        <v>532.880005</v>
+        <v>538.210022</v>
       </c>
       <c r="F425" t="n">
-        <v>532.880005</v>
+        <v>538.210022</v>
       </c>
       <c r="G425" t="n">
-        <v>21140058</v>
+        <v>37545574</v>
       </c>
       <c r="H425" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="2" t="n">
+        <v>43372</v>
+      </c>
+      <c r="B426" t="n">
+        <v>538.210022</v>
+      </c>
+      <c r="C426" t="n">
+        <v>552.1400150000001</v>
+      </c>
+      <c r="D426" t="n">
+        <v>517.090027</v>
+      </c>
+      <c r="E426" t="n">
+        <v>530.76001</v>
+      </c>
+      <c r="F426" t="n">
+        <v>530.76001</v>
+      </c>
+      <c r="G426" t="n">
+        <v>29426591</v>
+      </c>
+      <c r="H426" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="2" t="n">
+        <v>43373</v>
+      </c>
+      <c r="B427" t="n">
+        <v>530.76001</v>
+      </c>
+      <c r="C427" t="n">
+        <v>542.6099849999999</v>
+      </c>
+      <c r="D427" t="n">
+        <v>520.549988</v>
+      </c>
+      <c r="E427" t="n">
+        <v>532.400024</v>
+      </c>
+      <c r="F427" t="n">
+        <v>532.400024</v>
+      </c>
+      <c r="G427" t="n">
+        <v>27176277</v>
+      </c>
+      <c r="H427" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="A428" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B428" t="n">
+        <v>532.460022</v>
+      </c>
+      <c r="C428" t="n">
+        <v>552.429993</v>
+      </c>
+      <c r="D428" t="n">
+        <v>522.419983</v>
+      </c>
+      <c r="E428" t="n">
+        <v>531.73999</v>
+      </c>
+      <c r="F428" t="n">
+        <v>531.73999</v>
+      </c>
+      <c r="G428" t="n">
+        <v>33002215</v>
+      </c>
+      <c r="H428" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="2" t="n">
+        <v>43375</v>
+      </c>
+      <c r="B429" t="n">
+        <v>531.73999</v>
+      </c>
+      <c r="C429" t="n">
+        <v>532.780029</v>
+      </c>
+      <c r="D429" t="n">
+        <v>506.01001</v>
+      </c>
+      <c r="E429" t="n">
+        <v>516.299988</v>
+      </c>
+      <c r="F429" t="n">
+        <v>516.299988</v>
+      </c>
+      <c r="G429" t="n">
+        <v>30392296</v>
+      </c>
+      <c r="H429" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="A430" s="2" t="n">
+        <v>43376</v>
+      </c>
+      <c r="B430" t="n">
+        <v>516.3099980000001</v>
+      </c>
+      <c r="C430" t="n">
+        <v>531.219971</v>
+      </c>
+      <c r="D430" t="n">
+        <v>507.850006</v>
+      </c>
+      <c r="E430" t="n">
+        <v>513.6900019999999</v>
+      </c>
+      <c r="F430" t="n">
+        <v>513.6900019999999</v>
+      </c>
+      <c r="G430" t="n">
+        <v>19892322</v>
+      </c>
+      <c r="H430" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="A431" s="2" t="n">
+        <v>43377</v>
+      </c>
+      <c r="B431" t="n">
+        <v>513.6900019999999</v>
+      </c>
+      <c r="C431" t="n">
+        <v>527.0599980000001</v>
+      </c>
+      <c r="D431" t="n">
+        <v>510.529999</v>
+      </c>
+      <c r="E431" t="n">
+        <v>520.369995</v>
+      </c>
+      <c r="F431" t="n">
+        <v>520.369995</v>
+      </c>
+      <c r="G431" t="n">
+        <v>14431078</v>
+      </c>
+      <c r="H431" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="2" t="n">
+        <v>43378</v>
+      </c>
+      <c r="B432" t="n">
+        <v>520.369995</v>
+      </c>
+      <c r="C432" t="n">
+        <v>521.429993</v>
+      </c>
+      <c r="D432" t="n">
+        <v>501.920013</v>
+      </c>
+      <c r="E432" t="n">
+        <v>509.929993</v>
+      </c>
+      <c r="F432" t="n">
+        <v>509.929993</v>
+      </c>
+      <c r="G432" t="n">
+        <v>14019498</v>
+      </c>
+      <c r="H432" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="A433" s="2" t="n">
+        <v>43379</v>
+      </c>
+      <c r="B433" t="n">
+        <v>509.950012</v>
+      </c>
+      <c r="C433" t="n">
+        <v>525.549988</v>
+      </c>
+      <c r="D433" t="n">
+        <v>505.570007</v>
+      </c>
+      <c r="E433" t="n">
+        <v>519.659973</v>
+      </c>
+      <c r="F433" t="n">
+        <v>519.659973</v>
+      </c>
+      <c r="G433" t="n">
+        <v>15886038</v>
+      </c>
+      <c r="H433" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="2" t="n">
+        <v>43380</v>
+      </c>
+      <c r="B434" t="n">
+        <v>519.659973</v>
+      </c>
+      <c r="C434" t="n">
+        <v>534.080017</v>
+      </c>
+      <c r="D434" t="n">
+        <v>517.570007</v>
+      </c>
+      <c r="E434" t="n">
+        <v>529.8599849999999</v>
+      </c>
+      <c r="F434" t="n">
+        <v>529.8599849999999</v>
+      </c>
+      <c r="G434" t="n">
+        <v>19111969</v>
+      </c>
+      <c r="H434" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="2" t="n">
+        <v>43381</v>
+      </c>
+      <c r="B435" t="n">
+        <v>529.8599849999999</v>
+      </c>
+      <c r="C435" t="n">
+        <v>530.02002</v>
+      </c>
+      <c r="D435" t="n">
+        <v>515.6900019999999</v>
+      </c>
+      <c r="E435" t="n">
+        <v>518.919983</v>
+      </c>
+      <c r="F435" t="n">
+        <v>518.919983</v>
+      </c>
+      <c r="G435" t="n">
+        <v>12153999</v>
+      </c>
+      <c r="H435" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="2" t="n">
+        <v>43382</v>
+      </c>
+      <c r="B436" t="n">
+        <v>518.919983</v>
+      </c>
+      <c r="C436" t="n">
+        <v>519.119995</v>
+      </c>
+      <c r="D436" t="n">
+        <v>507.75</v>
+      </c>
+      <c r="E436" t="n">
+        <v>513.619995</v>
+      </c>
+      <c r="F436" t="n">
+        <v>513.619995</v>
+      </c>
+      <c r="G436" t="n">
+        <v>18728058</v>
+      </c>
+      <c r="H436" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="2" t="n">
+        <v>43383</v>
+      </c>
+      <c r="B437" t="n">
+        <v>513.619995</v>
+      </c>
+      <c r="C437" t="n">
+        <v>513.719971</v>
+      </c>
+      <c r="D437" t="n">
+        <v>426.459991</v>
+      </c>
+      <c r="E437" t="n">
+        <v>431.470001</v>
+      </c>
+      <c r="F437" t="n">
+        <v>431.470001</v>
+      </c>
+      <c r="G437" t="n">
+        <v>58768665</v>
+      </c>
+      <c r="H437" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="2" t="n">
+        <v>43384</v>
+      </c>
+      <c r="B438" t="n">
+        <v>431.679993</v>
+      </c>
+      <c r="C438" t="n">
+        <v>455.029999</v>
+      </c>
+      <c r="D438" t="n">
+        <v>426.119995</v>
+      </c>
+      <c r="E438" t="n">
+        <v>441</v>
+      </c>
+      <c r="F438" t="n">
+        <v>441</v>
+      </c>
+      <c r="G438" t="n">
+        <v>18671646</v>
+      </c>
+      <c r="H438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="2" t="n">
+        <v>43385</v>
+      </c>
+      <c r="B439" t="n">
+        <v>441</v>
+      </c>
+      <c r="C439" t="n">
+        <v>451.1099849999999</v>
+      </c>
+      <c r="D439" t="n">
+        <v>440.279999</v>
+      </c>
+      <c r="E439" t="n">
+        <v>449.929993</v>
+      </c>
+      <c r="F439" t="n">
+        <v>449.929993</v>
+      </c>
+      <c r="G439" t="n">
+        <v>9470666</v>
+      </c>
+      <c r="H439" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="2" t="n">
+        <v>43386</v>
+      </c>
+      <c r="B440" t="n">
+        <v>449.929993</v>
+      </c>
+      <c r="C440" t="n">
+        <v>454.26001</v>
+      </c>
+      <c r="D440" t="n">
+        <v>436.339996</v>
+      </c>
+      <c r="E440" t="n">
+        <v>438.98999</v>
+      </c>
+      <c r="F440" t="n">
+        <v>438.98999</v>
+      </c>
+      <c r="G440" t="n">
+        <v>11254615</v>
+      </c>
+      <c r="H440" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="2" t="n">
+        <v>43387</v>
+      </c>
+      <c r="B441" t="n">
+        <v>438.98999</v>
+      </c>
+      <c r="C441" t="n">
+        <v>509.799988</v>
+      </c>
+      <c r="D441" t="n">
+        <v>432.5</v>
+      </c>
+      <c r="E441" t="n">
+        <v>463.1099849999999</v>
+      </c>
+      <c r="F441" t="n">
+        <v>463.1099849999999</v>
+      </c>
+      <c r="G441" t="n">
+        <v>65292700</v>
+      </c>
+      <c r="H441" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="2" t="n">
+        <v>43388</v>
+      </c>
+      <c r="B442" t="n">
+        <v>463.1099849999999</v>
+      </c>
+      <c r="C442" t="n">
+        <v>474.399994</v>
+      </c>
+      <c r="D442" t="n">
+        <v>447.850006</v>
+      </c>
+      <c r="E442" t="n">
+        <v>458.98999</v>
+      </c>
+      <c r="F442" t="n">
+        <v>458.98999</v>
+      </c>
+      <c r="G442" t="n">
+        <v>16410383</v>
+      </c>
+      <c r="H442" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="2" t="n">
+        <v>43389</v>
+      </c>
+      <c r="B443" t="n">
+        <v>459.130005</v>
+      </c>
+      <c r="C443" t="n">
+        <v>459.519989</v>
+      </c>
+      <c r="D443" t="n">
+        <v>446.98999</v>
+      </c>
+      <c r="E443" t="n">
+        <v>450.869995</v>
+      </c>
+      <c r="F443" t="n">
+        <v>450.869995</v>
+      </c>
+      <c r="G443" t="n">
+        <v>17608046</v>
+      </c>
+      <c r="H443" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444" s="2" t="n">
+        <v>43390</v>
+      </c>
+      <c r="B444" t="n">
+        <v>450.869995</v>
+      </c>
+      <c r="C444" t="n">
+        <v>459.200012</v>
+      </c>
+      <c r="D444" t="n">
+        <v>432.649994</v>
+      </c>
+      <c r="E444" t="n">
+        <v>439.549988</v>
+      </c>
+      <c r="F444" t="n">
+        <v>439.549988</v>
+      </c>
+      <c r="G444" t="n">
+        <v>22679368</v>
+      </c>
+      <c r="H444" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" s="2" t="n">
+        <v>43391</v>
+      </c>
+      <c r="B445" t="n">
+        <v>439.549988</v>
+      </c>
+      <c r="C445" t="n">
+        <v>447.100006</v>
+      </c>
+      <c r="D445" t="n">
+        <v>434.01001</v>
+      </c>
+      <c r="E445" t="n">
+        <v>441.98999</v>
+      </c>
+      <c r="F445" t="n">
+        <v>441.98999</v>
+      </c>
+      <c r="G445" t="n">
+        <v>14289026</v>
+      </c>
+      <c r="H445" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="2" t="n">
+        <v>43393</v>
+      </c>
+      <c r="B446" t="n">
+        <v>441.98999</v>
+      </c>
+      <c r="C446" t="n">
+        <v>448.23999</v>
+      </c>
+      <c r="D446" t="n">
+        <v>438.149994</v>
+      </c>
+      <c r="E446" t="n">
+        <v>446.209991</v>
+      </c>
+      <c r="F446" t="n">
+        <v>446.209991</v>
+      </c>
+      <c r="G446" t="n">
+        <v>4860787</v>
+      </c>
+      <c r="H446" t="s">
         <v>8</v>
       </c>
     </row>

--- a/BitcoinCash.xlsx
+++ b/BitcoinCash.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H446"/>
+  <dimension ref="A1:H447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11976,27 +11976,53 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" s="2" t="n">
-        <v>43393</v>
+        <v>43392</v>
       </c>
       <c r="B446" t="n">
-        <v>441.98999</v>
+        <v>442.070007</v>
       </c>
       <c r="C446" t="n">
-        <v>448.23999</v>
+        <v>453.6099849999999</v>
       </c>
       <c r="D446" t="n">
         <v>438.149994</v>
       </c>
       <c r="E446" t="n">
-        <v>446.209991</v>
+        <v>449.570007</v>
       </c>
       <c r="F446" t="n">
-        <v>446.209991</v>
+        <v>449.570007</v>
       </c>
       <c r="G446" t="n">
-        <v>4860787</v>
+        <v>9039725</v>
       </c>
       <c r="H446" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B447" t="n">
+        <v>449.570007</v>
+      </c>
+      <c r="C447" t="n">
+        <v>456.529999</v>
+      </c>
+      <c r="D447" t="n">
+        <v>448.209991</v>
+      </c>
+      <c r="E447" t="n">
+        <v>454.299988</v>
+      </c>
+      <c r="F447" t="n">
+        <v>454.299988</v>
+      </c>
+      <c r="G447" t="n">
+        <v>3235931</v>
+      </c>
+      <c r="H447" t="s">
         <v>8</v>
       </c>
     </row>

--- a/BitcoinCash.xlsx
+++ b/BitcoinCash.xlsx
@@ -396,7 +396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H447"/>
+  <dimension ref="A1:H452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12002,27 +12002,157 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" s="2" t="n">
-        <v>43394</v>
+        <v>43393</v>
       </c>
       <c r="B447" t="n">
         <v>449.570007</v>
       </c>
       <c r="C447" t="n">
-        <v>456.529999</v>
+        <v>459.019989</v>
       </c>
       <c r="D447" t="n">
         <v>448.209991</v>
       </c>
       <c r="E447" t="n">
-        <v>454.299988</v>
+        <v>451.070007</v>
       </c>
       <c r="F447" t="n">
-        <v>454.299988</v>
+        <v>451.070007</v>
       </c>
       <c r="G447" t="n">
-        <v>3235931</v>
+        <v>13046808</v>
       </c>
       <c r="H447" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="2" t="n">
+        <v>43394</v>
+      </c>
+      <c r="B448" t="n">
+        <v>451.070007</v>
+      </c>
+      <c r="C448" t="n">
+        <v>454.6400150000001</v>
+      </c>
+      <c r="D448" t="n">
+        <v>444.75</v>
+      </c>
+      <c r="E448" t="n">
+        <v>452.570007</v>
+      </c>
+      <c r="F448" t="n">
+        <v>452.570007</v>
+      </c>
+      <c r="G448" t="n">
+        <v>9146964</v>
+      </c>
+      <c r="H448" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" s="2" t="n">
+        <v>43395</v>
+      </c>
+      <c r="B449" t="n">
+        <v>452.570007</v>
+      </c>
+      <c r="C449" t="n">
+        <v>454.290009</v>
+      </c>
+      <c r="D449" t="n">
+        <v>439.220001</v>
+      </c>
+      <c r="E449" t="n">
+        <v>444.869995</v>
+      </c>
+      <c r="F449" t="n">
+        <v>444.869995</v>
+      </c>
+      <c r="G449" t="n">
+        <v>11825085</v>
+      </c>
+      <c r="H449" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" s="2" t="n">
+        <v>43396</v>
+      </c>
+      <c r="B450" t="n">
+        <v>444.869995</v>
+      </c>
+      <c r="C450" t="n">
+        <v>453.26001</v>
+      </c>
+      <c r="D450" t="n">
+        <v>441.700012</v>
+      </c>
+      <c r="E450" t="n">
+        <v>444.950012</v>
+      </c>
+      <c r="F450" t="n">
+        <v>444.950012</v>
+      </c>
+      <c r="G450" t="n">
+        <v>10689614</v>
+      </c>
+      <c r="H450" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" s="2" t="n">
+        <v>43397</v>
+      </c>
+      <c r="B451" t="n">
+        <v>444.950012</v>
+      </c>
+      <c r="C451" t="n">
+        <v>448.279999</v>
+      </c>
+      <c r="D451" t="n">
+        <v>441.51001</v>
+      </c>
+      <c r="E451" t="n">
+        <v>442.730011</v>
+      </c>
+      <c r="F451" t="n">
+        <v>442.730011</v>
+      </c>
+      <c r="G451" t="n">
+        <v>7517283</v>
+      </c>
+      <c r="H451" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" s="2" t="n">
+        <v>43399</v>
+      </c>
+      <c r="B452" t="n">
+        <v>442.730011</v>
+      </c>
+      <c r="C452" t="n">
+        <v>446.1900019999999</v>
+      </c>
+      <c r="D452" t="n">
+        <v>437.700012</v>
+      </c>
+      <c r="E452" t="n">
+        <v>439.769989</v>
+      </c>
+      <c r="F452" t="n">
+        <v>439.769989</v>
+      </c>
+      <c r="G452" t="n">
+        <v>9188394</v>
+      </c>
+      <c r="H452" t="s">
         <v>8</v>
       </c>
     </row>
